--- a/Guild Digital/Example CHT application/forms/app/fp_follow_up.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/fp_follow_up.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -638,31 +638,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,874 +678,984 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L1011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
-      <selection pane="bottomRight" activeCell="D73" activeCellId="0" sqref="D73"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="37.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="C57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="B62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2499,8 +2609,8 @@
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2509,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2521,139 +2631,139 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="52.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2662,7 +2772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2672,69 +2782,69 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>44435</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
